--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/20/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.597399999999992</v>
+        <v>5.38999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.780900000000003</v>
+        <v>4.762900000000005</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.0157</v>
+        <v>-10.9932</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,10 +550,10 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.999400000000003</v>
+        <v>6.054700000000004</v>
       </c>
       <c r="C7" t="n">
-        <v>-10.9535</v>
+        <v>-11.0395</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.715499999999996</v>
+        <v>5.475999999999995</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.59459999999999</v>
+        <v>-10.75839999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.96490000000001</v>
+        <v>-22.18700000000002</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -627,15 +627,15 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.2044</v>
+        <v>12.7828</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.4746</v>
+        <v>-22.65460000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>6.073500000000001</v>
+        <v>6.091700000000004</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.811400000000006</v>
+        <v>9.462500000000007</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -678,12 +678,12 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.106</v>
+        <v>12.9537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.54670000000003</v>
+        <v>-21.30810000000002</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -757,13 +757,13 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.03599999999998</v>
+        <v>-13.14509999999999</v>
       </c>
       <c r="D19" t="n">
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.2973</v>
+        <v>12.85529999999999</v>
       </c>
     </row>
     <row r="20">
@@ -791,13 +791,13 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.3059</v>
+        <v>-13.1744</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.08859999999999</v>
+        <v>12.66039999999999</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.221300000000002</v>
+        <v>5.048200000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.28749999999999</v>
+        <v>-11.2975</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.62369999999999</v>
+        <v>-11.12989999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
